--- a/Factures_Excel/1295 - Louis Bellefeuille Inc.xlsx
+++ b/Factures_Excel/1295 - Louis Bellefeuille Inc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Admin-GC\GC Fiscalité Plus Inc\Facturation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E7625F-F5B0-4D0E-B0C4-1A9BAE0BA920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C12A68-7C7C-4451-B7AF-8197A04F4C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="08-09-16" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="05-12-23" sheetId="12" r:id="rId8"/>
     <sheet name="10-05-24" sheetId="13" r:id="rId9"/>
     <sheet name="Activités" sheetId="5" r:id="rId10"/>
+    <sheet name="2025-05-25 - 25-25034" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$45</definedName>
@@ -40,6 +41,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'05-12-23'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'08-09-16'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'10-05-24'!$A$1:$F$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'2025-05-25 - 25-25034'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'21-12-16'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'25-10-16'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'27-07-20'!$A$1:$F$89</definedName>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="114">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -375,21 +377,65 @@
   </si>
   <si>
     <t xml:space="preserve"> - Travail avec votre comptable pour l'exonération de gain en capital ;</t>
+  </si>
+  <si>
+    <t>Le 25 MAI 2025</t>
+  </si>
+  <si>
+    <t>François Bellefeuille</t>
+  </si>
+  <si>
+    <t>2169 Des Sables</t>
+  </si>
+  <si>
+    <t>Saint-Lazarre, Québec, J7T 2C6</t>
+  </si>
+  <si>
+    <t>25-25034</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous;</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lecture, analyse et rédaction de divers courriels avec les divers intervenants;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail d'analyse dans le dossier de la vente d'actions ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse relativement à la possibilité de réclamer la provision pour gain en capital et déterminer le montant ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de lettres requises aux gouvernements ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de vos déclarations de revenus de l'année ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Dossier de vérifiction fiscale ;</t>
+  </si>
+  <si>
+    <t>Frais d'expert en taxes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;_);\(#,##0.00\ &quot;$&quot;\)"/>
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;$&quot;_-;[Red]#,##0.00\ &quot;$&quot;\-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$$-C0C]_);\(#,##0.00\ [$$-C0C]\)"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="169" formatCode="##0.00"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -529,8 +575,61 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF625850"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF625850"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF625850"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF625850"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,12 +857,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -845,21 +953,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -872,20 +965,211 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers 2" xfId="5" xr:uid="{6FA72DC6-DD28-4AE7-B5A0-B63F37911F8B}"/>
     <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{78683A58-0666-47B8-A73B-10DF42180976}"/>
+    <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,6 +1304,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10241" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2EE621-76DB-69DE-4380-7E5BF7C58CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1895,14 +2245,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -1923,311 +2273,311 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -2334,19 +2684,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -2354,9 +2704,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -2391,31 +2741,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -2427,26 +2777,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2456,6 +2806,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -2472,36 +2852,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -2511,7 +2861,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="126" scale="89" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="126" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2895,6 +3245,839 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF62A6D4-95D9-4B90-8A5C-185C0751442D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="61"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="66"/>
+      <c r="B21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="66"/>
+      <c r="B24" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="67"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="73"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="78"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="80"/>
+      <c r="B32" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="80"/>
+      <c r="B34" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="80"/>
+      <c r="B35" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="88"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="80"/>
+      <c r="B36" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="80"/>
+      <c r="B37" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="86"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="80"/>
+      <c r="B38" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="80"/>
+      <c r="B39" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="86"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="80"/>
+      <c r="B40" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="88"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="80"/>
+      <c r="B41" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="80"/>
+      <c r="B42" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="80"/>
+      <c r="B43" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="86"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="80"/>
+      <c r="B44" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="80"/>
+      <c r="B45" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="86"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="80"/>
+      <c r="B46" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="86"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="80"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="80"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="80"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="80"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="80"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="80"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="80"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="80"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="80"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="80"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="80"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="80"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="80"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="80"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="80"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="80"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="80"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="80"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="80"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="80"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="80"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="80"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="80"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="66"/>
+      <c r="B69" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="98"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="99">
+        <v>4707.5</v>
+      </c>
+      <c r="F69" s="99"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="66"/>
+      <c r="B70" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="101"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="102">
+        <v>20</v>
+      </c>
+      <c r="F70" s="102"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="66"/>
+      <c r="B71" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="101"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="102">
+        <v>0</v>
+      </c>
+      <c r="F71" s="102"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="66"/>
+      <c r="B72" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="101"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="102">
+        <v>0</v>
+      </c>
+      <c r="F72" s="102"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="66"/>
+      <c r="B73" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="98"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="104">
+        <v>4727.5</v>
+      </c>
+      <c r="F73" s="104"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="66"/>
+      <c r="B74" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="105">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="101"/>
+      <c r="E74" s="106">
+        <v>236.38</v>
+      </c>
+      <c r="F74" s="106"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="66"/>
+      <c r="B75" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="108">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="101"/>
+      <c r="E75" s="109">
+        <v>471.57</v>
+      </c>
+      <c r="F75" s="106"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="66"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="66"/>
+      <c r="B77" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="98"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="112">
+        <v>5435.45</v>
+      </c>
+      <c r="F77" s="113"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="66"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="107"/>
+      <c r="D78" s="107"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="107"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="66"/>
+      <c r="B79" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="107"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="69">
+        <v>0</v>
+      </c>
+      <c r="F79" s="69"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="66"/>
+      <c r="B80" s="98"/>
+      <c r="C80" s="107"/>
+      <c r="D80" s="107"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="107"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="66"/>
+      <c r="B81" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="116"/>
+      <c r="D81" s="117"/>
+      <c r="E81" s="118">
+        <v>5435.45</v>
+      </c>
+      <c r="F81" s="69"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="66"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="119"/>
+      <c r="B83" s="120"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="122"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="123" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="123"/>
+      <c r="C84" s="123"/>
+      <c r="D84" s="123"/>
+      <c r="E84" s="123"/>
+      <c r="F84" s="81"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="125"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="126"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="126"/>
+      <c r="F86" s="125"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="126"/>
+      <c r="B87" s="126"/>
+      <c r="C87" s="126"/>
+      <c r="D87" s="126"/>
+      <c r="E87" s="126"/>
+      <c r="F87" s="125"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -3038,14 +4221,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -3066,53 +4249,53 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
@@ -3146,9 +4329,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
@@ -3164,9 +4347,9 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
@@ -3182,187 +4365,187 @@
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -3469,19 +4652,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -3489,9 +4672,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -3526,31 +4709,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -3562,26 +4745,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3591,16 +4774,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -3613,25 +4805,16 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -3640,7 +4823,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="126" scale="89" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="126" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3789,14 +4972,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -3817,53 +5000,53 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
@@ -3897,9 +5080,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
@@ -3915,209 +5098,209 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -4224,19 +5407,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -4244,9 +5427,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -4281,31 +5464,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -4317,26 +5500,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4346,30 +5529,11 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B46:D46"/>
@@ -4383,11 +5547,30 @@
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B51 B52:B68" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -4396,7 +5579,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="126" scale="89" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="126" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4545,14 +5728,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -4573,53 +5756,53 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
@@ -4653,9 +5836,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
@@ -4671,203 +5854,203 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -4974,19 +6157,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -4994,9 +6177,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -5031,31 +6214,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -5067,26 +6250,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5096,6 +6279,760 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{3260F410-F924-4F25-8C29-2266D34478EF}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E0B43F-F718-4C3E-BE49-732F87D77792}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="22"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="22"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="22"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="22"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="22"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="22"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="22"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="22"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="22"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="22"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="22"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="22"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="22"/>
+      <c r="B69" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="30">
+        <f>12*285</f>
+        <v>3420</v>
+      </c>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="22"/>
+      <c r="B70" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="31">
+        <v>0</v>
+      </c>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="22"/>
+      <c r="B71" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="31">
+        <v>0</v>
+      </c>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="22"/>
+      <c r="B72" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="30">
+        <f>SUM(E69:E71)</f>
+        <v>3420</v>
+      </c>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22"/>
+      <c r="B73" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="36">
+        <f>ROUND(E72*C73,2)</f>
+        <v>171</v>
+      </c>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="43">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="44">
+        <f>ROUND(E72*C74,2)</f>
+        <v>341.15</v>
+      </c>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="22"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="34">
+        <f>SUM(E72:E74)</f>
+        <v>3932.15</v>
+      </c>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="22"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="22"/>
+      <c r="B78" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="37">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="22"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="22"/>
+      <c r="B80" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40">
+        <f>E76-E78</f>
+        <v>3932.15</v>
+      </c>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="22"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="22"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="22"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
@@ -5127,6 +7064,10 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B41:D41"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:D50"/>
@@ -5140,771 +7081,13 @@
     <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{3260F410-F924-4F25-8C29-2266D34478EF}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E0B43F-F718-4C3E-BE49-732F87D77792}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
-      <c r="B69" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="30">
-        <f>12*285</f>
-        <v>3420</v>
-      </c>
-      <c r="F69" s="22"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
-      <c r="B70" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="31">
-        <v>0</v>
-      </c>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
-      <c r="B71" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="31">
-        <v>0</v>
-      </c>
-      <c r="F71" s="22"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="30">
-        <f>SUM(E69:E71)</f>
-        <v>3420</v>
-      </c>
-      <c r="F72" s="22"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-      <c r="B73" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="36">
-        <f>ROUND(E72*C73,2)</f>
-        <v>171</v>
-      </c>
-      <c r="F73" s="22"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="43">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="44">
-        <f>ROUND(E72*C74,2)</f>
-        <v>341.15</v>
-      </c>
-      <c r="F74" s="22"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="22"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="34">
-        <f>SUM(E72:E74)</f>
-        <v>3932.15</v>
-      </c>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="22"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="37">
-        <v>0</v>
-      </c>
-      <c r="F78" s="22"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="B80" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="40">
-        <f>E76-E78</f>
-        <v>3932.15</v>
-      </c>
-      <c r="F80" s="22"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="22"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="22"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A88:F88"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{3F46EC3F-AC3E-4D43-A4C8-EDE6E84FBA2B}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6053,14 +7236,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -6081,305 +7264,305 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -6486,19 +7669,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -6506,9 +7689,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -6543,31 +7726,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -6579,26 +7762,1514 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{BB127494-B6C0-469A-841C-0E77FDCED2DA}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF7FECB-1CE6-4A02-9F4E-BF334B53201B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="22"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="22"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="22"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="22"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="22"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="22"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="22"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="22"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="22"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="22"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="22"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="22"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="22"/>
+      <c r="B69" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="30">
+        <f>0.75*295</f>
+        <v>221.25</v>
+      </c>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="22"/>
+      <c r="B70" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="31">
+        <v>50</v>
+      </c>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="22"/>
+      <c r="B71" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="31">
+        <v>0</v>
+      </c>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="22"/>
+      <c r="B72" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="30">
+        <f>SUM(E69:E71)</f>
+        <v>271.25</v>
+      </c>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22"/>
+      <c r="B73" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="36">
+        <f>ROUND(E72*C73,2)</f>
+        <v>13.56</v>
+      </c>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="43">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="44">
+        <f>ROUND(E72*C74,2)</f>
+        <v>27.06</v>
+      </c>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="22"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="34">
+        <f>SUM(E72:E74)</f>
+        <v>311.87</v>
+      </c>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="22"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="22"/>
+      <c r="B78" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="37">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="22"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="22"/>
+      <c r="B80" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40">
+        <f>E76-E78</f>
+        <v>311.87</v>
+      </c>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="22"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="22"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="22"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{839C0A34-BC82-44A9-B7AC-A9AAA1FAC12A}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE365995-2067-43D1-A524-8327D2730567}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="22"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="22"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="22"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="22"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="22"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="22"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="22"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="22"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="22"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="22"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="22"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="22"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="22"/>
+      <c r="B69" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="30">
+        <f>2.5*350</f>
+        <v>875</v>
+      </c>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="22"/>
+      <c r="B70" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="31">
+        <v>0</v>
+      </c>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="22"/>
+      <c r="B71" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="31">
+        <v>0</v>
+      </c>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="22"/>
+      <c r="B72" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="30">
+        <f>SUM(E69:E71)</f>
+        <v>875</v>
+      </c>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22"/>
+      <c r="B73" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="36">
+        <f>ROUND(E72*C73,2)</f>
+        <v>43.75</v>
+      </c>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="43">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="44">
+        <f>ROUND(E72*C74,2)</f>
+        <v>87.28</v>
+      </c>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="22"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="34">
+        <f>SUM(E72:E74)</f>
+        <v>1006.03</v>
+      </c>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="22"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="22"/>
+      <c r="B78" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="37">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="22"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="22"/>
+      <c r="B80" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40">
+        <f>E76-E78</f>
+        <v>1006.03</v>
+      </c>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="22"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="22"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="22"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6656,27 +9327,27 @@
     <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{BB127494-B6C0-469A-841C-0E77FDCED2DA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{C106A2C2-204B-455C-BDB3-1FB51D7EB0D4}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF7FECB-1CE6-4A02-9F4E-BF334B53201B}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67F92F5-42D4-4CA2-86DF-F9B8D2C92DD6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:D63"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6729,7 +9400,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -6754,9 +9425,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
-      <c r="B24" s="26" t="s">
-        <v>56</v>
-      </c>
+      <c r="B24" s="26"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -6765,7 +9434,7 @@
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="26" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -6775,7 +9444,7 @@
     <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="48" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -6798,7 +9467,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F28" s="22"/>
     </row>
@@ -6811,14 +9480,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -6839,291 +9508,291 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="B35" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="29"/>
       <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="29"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -7135,8 +9804,8 @@
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="30">
-        <f>0.75*295</f>
-        <v>221.25</v>
+        <f>1.5*350</f>
+        <v>525</v>
       </c>
       <c r="F69" s="22"/>
     </row>
@@ -7148,7 +9817,7 @@
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F70" s="22"/>
     </row>
@@ -7173,7 +9842,7 @@
       <c r="D72" s="27"/>
       <c r="E72" s="30">
         <f>SUM(E69:E71)</f>
-        <v>271.25</v>
+        <v>525</v>
       </c>
       <c r="F72" s="22"/>
     </row>
@@ -7188,7 +9857,7 @@
       <c r="D73" s="27"/>
       <c r="E73" s="36">
         <f>ROUND(E72*C73,2)</f>
-        <v>13.56</v>
+        <v>26.25</v>
       </c>
       <c r="F73" s="22"/>
     </row>
@@ -7203,7 +9872,7 @@
       <c r="D74" s="27"/>
       <c r="E74" s="44">
         <f>ROUND(E72*C74,2)</f>
-        <v>27.06</v>
+        <v>52.37</v>
       </c>
       <c r="F74" s="22"/>
     </row>
@@ -7224,25 +9893,25 @@
       <c r="D76" s="27"/>
       <c r="E76" s="34">
         <f>SUM(E72:E74)</f>
-        <v>311.87</v>
+        <v>603.62</v>
       </c>
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -7250,9 +9919,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -7265,7 +9934,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="40">
         <f>E76-E78</f>
-        <v>311.87</v>
+        <v>603.62</v>
       </c>
       <c r="F80" s="22"/>
     </row>
@@ -7287,31 +9956,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -7323,770 +9992,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{839C0A34-BC82-44A9-B7AC-A9AAA1FAC12A}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE365995-2067-43D1-A524-8327D2730567}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
-      <c r="B69" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="30">
-        <f>2.5*350</f>
-        <v>875</v>
-      </c>
-      <c r="F69" s="22"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
-      <c r="B70" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="31">
-        <v>0</v>
-      </c>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
-      <c r="B71" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="31">
-        <v>0</v>
-      </c>
-      <c r="F71" s="22"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="30">
-        <f>SUM(E69:E71)</f>
-        <v>875</v>
-      </c>
-      <c r="F72" s="22"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-      <c r="B73" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="36">
-        <f>ROUND(E72*C73,2)</f>
-        <v>43.75</v>
-      </c>
-      <c r="F73" s="22"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="43">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="44">
-        <f>ROUND(E72*C74,2)</f>
-        <v>87.28</v>
-      </c>
-      <c r="F74" s="22"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="22"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="34">
-        <f>SUM(E72:E74)</f>
-        <v>1006.03</v>
-      </c>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="22"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="37">
-        <v>0</v>
-      </c>
-      <c r="F78" s="22"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="B80" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="40">
-        <f>E76-E78</f>
-        <v>1006.03</v>
-      </c>
-      <c r="F80" s="22"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="22"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="22"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -8144,755 +10069,13 @@
     <mergeCell ref="A84:F84"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{C106A2C2-204B-455C-BDB3-1FB51D7EB0D4}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67F92F5-42D4-4CA2-86DF-F9B8D2C92DD6}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
-      <c r="B69" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="30">
-        <f>1.5*350</f>
-        <v>525</v>
-      </c>
-      <c r="F69" s="22"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
-      <c r="B70" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="31">
-        <v>0</v>
-      </c>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
-      <c r="B71" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="31">
-        <v>0</v>
-      </c>
-      <c r="F71" s="22"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="30">
-        <f>SUM(E69:E71)</f>
-        <v>525</v>
-      </c>
-      <c r="F72" s="22"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-      <c r="B73" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="36">
-        <f>ROUND(E72*C73,2)</f>
-        <v>26.25</v>
-      </c>
-      <c r="F73" s="22"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="43">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="44">
-        <f>ROUND(E72*C74,2)</f>
-        <v>52.37</v>
-      </c>
-      <c r="F74" s="22"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="22"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="34">
-        <f>SUM(E72:E74)</f>
-        <v>603.62</v>
-      </c>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="22"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="37">
-        <v>0</v>
-      </c>
-      <c r="F78" s="22"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="B80" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="40">
-        <f>E76-E78</f>
-        <v>603.62</v>
-      </c>
-      <c r="F80" s="22"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="22"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="22"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{54E39BD6-CD10-44DC-AC8C-A0ECB90076DD}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
